--- a/docs/odh/shr-core-PhotographicImage-model.xlsx
+++ b/docs/odh/shr-core-PhotographicImage-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="64">
   <si>
     <t>Path</t>
   </si>
@@ -166,10 +166,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-PhotographicImage-model.resourceLocation</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
 </t>
   </si>
   <si>
-    <t>URI where data can be found.</t>
+    <t>URL where data can be found.</t>
   </si>
   <si>
     <t>shr-core-PhotographicImage-model.resourceSize</t>
@@ -366,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -875,7 +871,7 @@
         <v>36</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -907,7 +903,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -930,13 +926,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -987,7 +983,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1004,7 +1000,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1027,13 +1023,13 @@
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1084,7 +1080,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1101,7 +1097,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1127,10 +1123,10 @@
         <v>42</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1181,7 +1177,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1198,7 +1194,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1221,13 +1217,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1278,7 +1274,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1295,7 +1291,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1318,13 +1314,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1360,7 +1356,7 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1375,7 +1371,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
